--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Lrp6.xlsx
@@ -537,7 +537,7 @@
         <v>0.03046</v>
       </c>
       <c r="H2">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.210619666666666</v>
+        <v>12.40685866666667</v>
       </c>
       <c r="N2">
-        <v>27.631859</v>
+        <v>37.220576</v>
       </c>
       <c r="O2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="P2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="Q2">
-        <v>0.2805554750466666</v>
+        <v>0.3779129149866667</v>
       </c>
       <c r="R2">
-        <v>2.524999275419999</v>
+        <v>3.40121623488</v>
       </c>
       <c r="S2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
       <c r="T2">
-        <v>0.133636377806767</v>
+        <v>0.1720325859617629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.03046</v>
       </c>
       <c r="H3">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>131.916367</v>
       </c>
       <c r="O3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="P3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="Q3">
         <v>1.339390846273333</v>
@@ -632,10 +632,10 @@
         <v>12.05451761646</v>
       </c>
       <c r="S3">
-        <v>0.6379891218794987</v>
+        <v>0.6097142007069145</v>
       </c>
       <c r="T3">
-        <v>0.6379891218794989</v>
+        <v>0.6097142007069145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.03046</v>
       </c>
       <c r="H4">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,25 +679,25 @@
         <v>15.740255</v>
       </c>
       <c r="N4">
-        <v>47.22076500000001</v>
+        <v>47.220765</v>
       </c>
       <c r="O4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="P4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="Q4">
-        <v>0.4794481673000001</v>
+        <v>0.4794481673</v>
       </c>
       <c r="R4">
         <v>4.3150335057</v>
       </c>
       <c r="S4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
       <c r="T4">
-        <v>0.2283745003137342</v>
+        <v>0.2182532133313226</v>
       </c>
     </row>
   </sheetData>
